--- a/Nike Women Shoes Data Async.xlsx
+++ b/Nike Women Shoes Data Async.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="355">
   <si>
     <t>Product Name</t>
   </si>
@@ -244,6 +244,75 @@
     <t>Nike Blazer Mid '77 Canvas</t>
   </si>
   <si>
+    <t>Nike Victori One</t>
+  </si>
+  <si>
+    <t>Nike Icon Classic</t>
+  </si>
+  <si>
+    <t>Nike Renew In-Season TR 12</t>
+  </si>
+  <si>
+    <t>Nike Legend Essential 3 Next Nature</t>
+  </si>
+  <si>
+    <t>Nike Air Max INTRLK</t>
+  </si>
+  <si>
+    <t>Nike Daybreak</t>
+  </si>
+  <si>
+    <t>Nike Vomero 16</t>
+  </si>
+  <si>
+    <t>Nike Downshifter 12</t>
+  </si>
+  <si>
+    <t>Nike Wildhorse 8</t>
+  </si>
+  <si>
+    <t>Nike Structure 24</t>
+  </si>
+  <si>
+    <t>Nike Metcon 8 FlyEase</t>
+  </si>
+  <si>
+    <t>Nike SuperRep Cycle 2 Next Nature</t>
+  </si>
+  <si>
+    <t>Nike DBreak Premium</t>
+  </si>
+  <si>
+    <t>Nike Blazer Mid '77 SE</t>
+  </si>
+  <si>
+    <t>Nike Air Max Correlate</t>
+  </si>
+  <si>
+    <t>Nike Revolution 6</t>
+  </si>
+  <si>
+    <t>Nike Court Vision Low</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Low SE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Low</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Elevate Low</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Mid SE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Low G</t>
+  </si>
+  <si>
+    <t>Nike Go FlyEase</t>
+  </si>
+  <si>
     <t>Women's Shoes</t>
   </si>
   <si>
@@ -280,6 +349,27 @@
     <t>Shoes</t>
   </si>
   <si>
+    <t>Women's Print Slides</t>
+  </si>
+  <si>
+    <t>Women's Sandals</t>
+  </si>
+  <si>
+    <t>Women's Easy On/Off Training Shoes</t>
+  </si>
+  <si>
+    <t>Women's Indoor Cycling Shoes</t>
+  </si>
+  <si>
+    <t>Men's Shoes</t>
+  </si>
+  <si>
+    <t>Golf Shoes</t>
+  </si>
+  <si>
+    <t>Easy On/Off Shoes</t>
+  </si>
+  <si>
     <t>Best Seller</t>
   </si>
   <si>
@@ -508,6 +598,78 @@
     <t>https://www.nike.com/t/blazer-mid-77-canvas-womens-shoes-cGsWvK/DX5550-100</t>
   </si>
   <si>
+    <t>https://www.nike.com/t/victori-one-womens-print-slides-dLThzx/CN9676-105</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/icon-classic-womens-sandals-c4bCfN/DH0224-300</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/renew-in-season-tr-12-womens-training-shoes-bttk75/DD9301-001</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/legend-essential-3-next-nature-womens-training-shoes-c03LMt/DM1119-006</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-max-intrlk-womens-shoes-wRwftK/DQ2904-003</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/daybreak-womens-shoes-qLjcF9/CK2351-101</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/vomero-16-womens-road-running-shoes-ZqXmjz/DA7698-800</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/downshifter-12-womens-road-running-shoes-ZJlqCr/DD9294-800</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/wildhorse-8-womens-trail-running-shoes-TlD93l/DR2689-001</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/structure-24-womens-road-running-shoes-2hXmxT/DA8570-001</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/metcon-8-flyease-womens-easy-on-off-training-shoes-8kqhhk/DO9381-100</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/superrep-cycle-2-next-nature-womens-indoor-cycling-shoes-cqGbFr/DH3395-101</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/dbreak-premium-womens-shoes-61jl9b/DR5377-001</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/blazer-mid-77-se-womens-shoes-4ZNgBz/DV7003-100</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-max-correlate-womens-shoes-29Vjp0/511417-136</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/revolution-6-womens-road-running-shoes-6QLh9B/DC3729-106</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/court-vision-low-womens-shoes-KPB597/FJ4569-100</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-jordan-1-low-se-womens-shoes-jxMXgH/DV0426-012</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-jordan-1-low-womens-shoes-rJrHLw/DC0774-304</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-jordan-1-elevate-low-womens-shoes-Q630Pk/DH7004-600</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-jordan-1-mid-se-womens-shoes-wkMdft/DV0427-100</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-jordan-1-low-mens-shoes-0LXhbn/553558-215</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/air-jordan-1-low-g-golf-shoes-jChrQ3/DD9315-105</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/t/go-flyease-easy-on-off-shoes-6nd2cc/CW5883-400</t>
+  </si>
+  <si>
     <t>$160</t>
   </si>
   <si>
@@ -517,7 +679,7 @@
     <t>$85</t>
   </si>
   <si>
-    <t>$91.97$13029% off</t>
+    <t>$91.97</t>
   </si>
   <si>
     <t>$90</t>
@@ -526,7 +688,7 @@
     <t>$110</t>
   </si>
   <si>
-    <t>$80.97$10019% off</t>
+    <t>$80.97</t>
   </si>
   <si>
     <t>$130</t>
@@ -547,7 +709,7 @@
     <t>$125</t>
   </si>
   <si>
-    <t>$81.97$12031% off</t>
+    <t>$81.97</t>
   </si>
   <si>
     <t>$150</t>
@@ -568,13 +730,13 @@
     <t>$50</t>
   </si>
   <si>
-    <t>$97.97$13024% off</t>
-  </si>
-  <si>
-    <t>$119.97$14014% off</t>
-  </si>
-  <si>
-    <t>$136.97$16014% off</t>
+    <t>$97.97</t>
+  </si>
+  <si>
+    <t>$119.97</t>
+  </si>
+  <si>
+    <t>$136.97</t>
   </si>
   <si>
     <t>$75</t>
@@ -589,16 +751,16 @@
     <t>$275</t>
   </si>
   <si>
-    <t>$112.97$15024% off</t>
-  </si>
-  <si>
-    <t>$121.97$135</t>
+    <t>$112.97</t>
+  </si>
+  <si>
+    <t>$121.97</t>
   </si>
   <si>
     <t>$140</t>
   </si>
   <si>
-    <t>$90.97$100</t>
+    <t>$90.97</t>
   </si>
   <si>
     <t>$170</t>
@@ -607,232 +769,316 @@
     <t>$95</t>
   </si>
   <si>
-    <t>$90$15040% off</t>
-  </si>
-  <si>
-    <t>$96.97$16039% off</t>
-  </si>
-  <si>
-    <t>$80.97$11529% off</t>
+    <t>$96.97</t>
   </si>
   <si>
     <t>$115</t>
   </si>
   <si>
-    <t>Nike Air Max 270Best SellerNike Air Max 270Women's Shoes13 Colors$160</t>
-  </si>
-  <si>
-    <t>Nike Air VaporMax 2023 FlyknitSustainable MaterialsNike Air VaporMax 2023 FlyknitWomen's Shoes5 Colors$210</t>
-  </si>
-  <si>
-    <t>Nike Court Vision AltaNike Court Vision AltaWomen's Shoes6 Colors$85</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 ShadowNike Air Force 1 ShadowWomen's Shoes10 Colors$91.97$13029% off</t>
-  </si>
-  <si>
-    <t>Nike Gamma ForceBest SellerNike Gamma ForceWomen's Shoes6 Colors$90</t>
-  </si>
-  <si>
-    <t>Nike Tech HeraNike Tech HeraWomen's Shoes5 Colors$110</t>
-  </si>
-  <si>
-    <t>Nike Free Run 5.0Sustainable MaterialsNike Free Run 5.0Women's Road Running Shoes4 Colors$80.97$10019% off</t>
-  </si>
-  <si>
-    <t>Nike Pegasus 40Best SellerNike Pegasus 40Women's Road Running Shoes15 Colors$130</t>
-  </si>
-  <si>
-    <t>Nike Free Metcon 5Best SellerNike Free Metcon 5Women's Training Shoes9 Colors$120</t>
-  </si>
-  <si>
-    <t>Nike In-Season TR 13Nike In-Season TR 13Women's Training Shoes7 Colors$80</t>
-  </si>
-  <si>
-    <t>Nike Court Legacy LiftBest SellerNike Court Legacy LiftWomen's Shoes8 Colors$90</t>
-  </si>
-  <si>
-    <t>Nike Court Legacy Next NatureBest SellerNike Court Legacy Next NatureWomen's Shoes6 Colors$70</t>
-  </si>
-  <si>
-    <t>Nike Air Max 90Sustainable MaterialsNike Air Max 90Women's Shoes19 Colors$130</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 '07Best SellerNike Air Force 1 '07Women's Shoes5 Colors$110</t>
-  </si>
-  <si>
-    <t>Nike Air VaporMax PlusNike Air VaporMax PlusWomen's Shoes5 Colors$210</t>
-  </si>
-  <si>
-    <t>Nike Air Max Pre-DaySustainable MaterialsNike Air Max Pre-DayWomen's Shoes6 Colors$135</t>
-  </si>
-  <si>
-    <t>Nike Dunk HighNike Dunk HighWomen's Shoes1 Color$125</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 '07 MidNike Air Force 1 '07 MidWomen's Shoe9 Colors$81.97$12031% off</t>
-  </si>
-  <si>
-    <t>Nike Air Max SC SENike Air Max SC SEWomen's Shoes14 Colors$90</t>
-  </si>
-  <si>
-    <t>Nike Air Max PulseNike Air Max PulseWomen's Shoes4 Colors$150</t>
-  </si>
-  <si>
-    <t>Nike Free RN NNJust InNike Free RN NNWomen's Road Running Shoes4 Colors$100</t>
-  </si>
-  <si>
-    <t>Nike Invincible 3Just InNike Invincible 3Women's Road Running Shoes7 Colors$180</t>
-  </si>
-  <si>
-    <t>Nike Blazer Low PlatformJust InNike Blazer Low PlatformWomen's Shoes6 Colors$100</t>
-  </si>
-  <si>
-    <t>Nike Blazer Mid '77Best SellerNike Blazer Mid '77Women's Shoes7 Colors$105</t>
-  </si>
-  <si>
-    <t>Nike Air Winflo 10Just InNike Air Winflo 10Women's Road Running Shoes7 Colors$100</t>
-  </si>
-  <si>
-    <t>Nike Vaporfly 3Nike Vaporfly 3Women's Road Racing Shoes3 Colors$250</t>
-  </si>
-  <si>
-    <t>Nike Air Max 97 SENike Air Max 97 SEWomen's Shoes14 Colors$180</t>
-  </si>
-  <si>
-    <t>Nike Air Max 90 Futura SENike Air Max 90 Futura SEWomen's Shoes12 Colors$150</t>
-  </si>
-  <si>
-    <t>Nike CortezNike CortezWomen's Shoes4 Colors$90</t>
-  </si>
-  <si>
-    <t>Nike CalmComing SoonNike CalmWomen's Slides3 Colors$50</t>
-  </si>
-  <si>
-    <t>Nike Air Max SoloJust InNike Air Max SoloWomen's Shoes3 Colors$100</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 '07Nike Air Force 1 '07Women's Shoes5 Colors$110</t>
-  </si>
-  <si>
-    <t>Nike MotivaNike MotivaWomen's Walking Shoes4 Colors$110</t>
-  </si>
-  <si>
-    <t>Nike Metcon 8Nike Metcon 8Women's Training Shoes11 Colors$97.97$13024% off</t>
-  </si>
-  <si>
-    <t>Nike Air Max 1 '87Nike Air Max 1 '87Women's Shoes1 Color$160</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 ’07 LXNike Air Force 1 ’07 LXWomen's Shoes1 Color$130</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 PremiumNike Air Force 1 PremiumWomen's Shoes4 Colors$130</t>
-  </si>
-  <si>
-    <t>Nike Blazer Mid PremiumNike Blazer Mid PremiumWomen's Shoes4 Colors$125</t>
-  </si>
-  <si>
-    <t>Nike Pegasus Trail 4Nike Pegasus Trail 4Women's Trail Running Shoes11 Colors$119.97$14014% off</t>
-  </si>
-  <si>
-    <t>Nike Pegasus Trail 4 GORE-TEXNike Pegasus Trail 4 GORE-TEXWomen's Waterproof Trail Running Shoes9 Colors$136.97$16014% off</t>
-  </si>
-  <si>
-    <t>Nike Waffle DebutNike Waffle DebutWomen's Shoes8 Colors$75</t>
-  </si>
-  <si>
-    <t>Nike Celso GirlNike Celso GirlWomen's Slides1 Color$26</t>
-  </si>
-  <si>
-    <t>Nike Waffle OneNike Waffle OneWomen's Shoes8 Colors$105</t>
-  </si>
-  <si>
-    <t>Nike Offcourt AdjustNike Offcourt AdjustWomen's Slides4 Colors$40</t>
-  </si>
-  <si>
-    <t>Nike Alphafly 2Nike Alphafly 2Women's Road Racing Shoes3 Colors$275</t>
-  </si>
-  <si>
-    <t>Nike Zoom Fly 5Nike Zoom Fly 5Women's Road Running Shoes7 Colors$160</t>
-  </si>
-  <si>
-    <t>Nike ZegamaNike ZegamaWomen's Trail Running Shoes5 Colors$160</t>
-  </si>
-  <si>
-    <t>Nike Kiger 9Nike Kiger 9Women's Trail Running Shoes4 Colors$112.97$15024% off</t>
-  </si>
-  <si>
-    <t>Nike Air PrestoNike Air PrestoWomen's Shoe7 Colors$121.97$135</t>
-  </si>
-  <si>
-    <t>Nike Dunk HighNike Dunk HighWomen's Shoes3 Colors$125</t>
-  </si>
-  <si>
-    <t>Nike SuperRep Go 3 Flyknit Next NatureSustainable MaterialsNike SuperRep Go 3 Flyknit Next NatureWomen's Training Shoes9 Colors$100</t>
-  </si>
-  <si>
-    <t>Nike Zoom SuperRep 4 Next NatureSustainable MaterialsNike Zoom SuperRep 4 Next NatureWomen’s HIIT Class Shoes7 Colors$130</t>
-  </si>
-  <si>
-    <t>Nike Blazer Low '77 JumboNike Blazer Low '77 JumboWomen's Shoes4 Colors$100</t>
-  </si>
-  <si>
-    <t>Nike Air HuaracheNike Air HuaracheWomen's Shoes11 Colors$125</t>
-  </si>
-  <si>
-    <t>Nike Air Huarache CraftSustainable MaterialsNike Air Huarache CraftWomen's Shoes6 Colors$130</t>
-  </si>
-  <si>
-    <t>Nike Dunk High PremiumNike Dunk High PremiumWomen's Shoes2 Colors$140</t>
-  </si>
-  <si>
-    <t>Nike Air Max SYSTMNike Air Max SYSTMWomen's Shoes8 Colors$90.97$100</t>
-  </si>
-  <si>
-    <t>Nike Blazer Low '77Nike Blazer Low '77Women's Shoes1 Color$90</t>
-  </si>
-  <si>
-    <t>Nike J Force 1 Low LX SPNike J Force 1 Low LX SPWomen's Shoes2 Colors$170</t>
-  </si>
-  <si>
-    <t>Nike Air Max ExceeNike Air Max ExceeWomen's Shoes8 Colors$95</t>
-  </si>
-  <si>
-    <t>Nike Waffle Debut VintageNike Waffle Debut VintageWomen's Shoes3 Colors$80</t>
-  </si>
-  <si>
-    <t>Nike Blazer Mid '77 VintageNike Blazer Mid '77 VintageWomen's Shoes2 Colors$110</t>
-  </si>
-  <si>
-    <t>Nike Pegasus TurboSustainable MaterialsNike Pegasus TurboWomen's Road Running Shoes12 Colors$90$15040% off</t>
-  </si>
-  <si>
-    <t>Nike React Infinity 3Nike React Infinity 3Women's Road Running Shoes20 Colors$96.97$16039% off</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 '07 Next NatureSustainable MaterialsNike Air Force 1 '07 Next NatureWomen's Shoes5 Colors$80.97$11529% off</t>
-  </si>
-  <si>
-    <t>Nike Air Max DawnSustainable MaterialsNike Air Max DawnWomen's Shoes9 Colors$115</t>
-  </si>
-  <si>
-    <t>Nike MC Trainer 2Nike MC Trainer 2Women’s Training Shoes8 Colors$75</t>
-  </si>
-  <si>
-    <t>Nike Air Max Bella TR 5Nike Air Max Bella TR 5Women's Training Shoes6 Colors$90</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 PLT.AF.ORMNike Air Force 1 PLT.AF.ORMWomen's Shoes7 Colors$120</t>
-  </si>
-  <si>
-    <t>Nike Dunk High 1985Nike Dunk High 1985Shoes2 Colors$140</t>
-  </si>
-  <si>
-    <t>Nike Air Max Bliss LXNike Air Max Bliss LXWomen's Shoes10 Colors$112.97$15024% off</t>
-  </si>
-  <si>
-    <t>Nike Blazer Mid '77 CanvasNike Blazer Mid '77 CanvasWomen's Shoes2 Colors$100</t>
+    <t>$65</t>
+  </si>
+  <si>
+    <t>$56.97</t>
+  </si>
+  <si>
+    <t>$55.97</t>
+  </si>
+  <si>
+    <t>$76.97</t>
+  </si>
+  <si>
+    <t>$88.97</t>
+  </si>
+  <si>
+    <t>$89.97</t>
+  </si>
+  <si>
+    <t>$84.97</t>
+  </si>
+  <si>
+    <t>Nike Air Max 270Best SellerNike Air Max 270Women's Shoes13 Colors$16020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air VaporMax 2023 FlyknitSustainable MaterialsNike Air VaporMax 2023 FlyknitWomen's Shoes5 Colors$21020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Court Vision AltaNike Court Vision AltaWomen's Shoes6 Colors$8520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 ShadowNike Air Force 1 ShadowWomen's Shoes10 Colors$91.97$13029% Off29% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Gamma ForceBest SellerNike Gamma ForceWomen's Shoes6 Colors$9020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Tech HeraNike Tech HeraWomen's Shoes5 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Free Run 5.0Sustainable MaterialsNike Free Run 5.0Women's Road Running Shoes4 Colors$80.97$10019% Off19% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Pegasus 40Best SellerNike Pegasus 40Women's Road Running Shoes15 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Free Metcon 5Best SellerNike Free Metcon 5Women's Training Shoes9 Colors$12020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike In-Season TR 13Nike In-Season TR 13Women's Training Shoes7 Colors$8020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Court Legacy LiftBest SellerNike Court Legacy LiftWomen's Shoes8 Colors$9020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Court Legacy Next NatureBest SellerNike Court Legacy Next NatureWomen's Shoes6 Colors$7020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max 90Sustainable MaterialsNike Air Max 90Women's Shoes19 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07Best SellerNike Air Force 1 '07Women's Shoes5 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air VaporMax PlusNike Air VaporMax PlusWomen's Shoes5 Colors$21020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max Pre-DaySustainable MaterialsNike Air Max Pre-DayWomen's Shoes6 Colors$13520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Dunk HighNike Dunk HighWomen's Shoes1 Color$12520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07 MidNike Air Force 1 '07 MidWomen's Shoe9 Colors$81.97$12031% Off31% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max SC SENike Air Max SC SEWomen's Shoes14 Colors$9020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max PulseNike Air Max PulseWomen's Shoes4 Colors$15020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Free RN NNJust InNike Free RN NNWomen's Road Running Shoes4 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Invincible 3Just InNike Invincible 3Women's Road Running Shoes7 Colors$18020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Low PlatformJust InNike Blazer Low PlatformWomen's Shoes6 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Mid '77Best SellerNike Blazer Mid '77Women's Shoes7 Colors$10520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Winflo 10Just InNike Air Winflo 10Women's Road Running Shoes7 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Vaporfly 3Nike Vaporfly 3Women's Road Racing Shoes3 Colors$25020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max 97 SENike Air Max 97 SEWomen's Shoes14 Colors$18020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max 90 Futura SENike Air Max 90 Futura SEWomen's Shoes12 Colors$15020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike CortezNike CortezWomen's Shoes3 Colors$9020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike CalmComing SoonNike CalmWomen's Slides3 Colors$5020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max SoloJust InNike Air Max SoloWomen's Shoes3 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07Nike Air Force 1 '07Women's Shoes5 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike MotivaNike MotivaWomen's Walking Shoes4 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Metcon 8Nike Metcon 8Women's Training Shoes11 Colors$97.97$13024% Off24% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max 1 '87Nike Air Max 1 '87Women's Shoes1 Color$16020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 ’07 LXNike Air Force 1 ’07 LXWomen's Shoes1 Color$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 PremiumNike Air Force 1 PremiumWomen's Shoes4 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Mid PremiumNike Blazer Mid PremiumWomen's Shoes4 Colors$12520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Pegasus Trail 4Nike Pegasus Trail 4Women's Trail Running Shoes11 Colors$119.97$14014% Off14% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Pegasus Trail 4 GORE-TEXNike Pegasus Trail 4 GORE-TEXWomen's Waterproof Trail Running Shoes9 Colors$136.97$16014% Off14% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Waffle DebutNike Waffle DebutWomen's Shoes8 Colors$7520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Celso GirlNike Celso GirlWomen's Slides1 Color$2620% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Waffle OneNike Waffle OneWomen's Shoes8 Colors$10520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Offcourt AdjustNike Offcourt AdjustWomen's Slides4 Colors$4020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Alphafly 2Nike Alphafly 2Women's Road Racing Shoes3 Colors$27520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Zoom Fly 5Nike Zoom Fly 5Women's Road Running Shoes7 Colors$16020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike ZegamaNike ZegamaWomen's Trail Running Shoes5 Colors$16020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Kiger 9Nike Kiger 9Women's Trail Running Shoes4 Colors$112.97$15024% Off24% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air PrestoNike Air PrestoWomen's Shoe7 Colors$121.97$13520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Dunk HighNike Dunk HighWomen's Shoes3 Colors$12520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike SuperRep Go 3 Flyknit Next NatureSustainable MaterialsNike SuperRep Go 3 Flyknit Next NatureWomen's Training Shoes9 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Zoom SuperRep 4 Next NatureSustainable MaterialsNike Zoom SuperRep 4 Next NatureWomen’s HIIT Class Shoes7 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Low '77 JumboNike Blazer Low '77 JumboWomen's Shoes4 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air HuaracheNike Air HuaracheWomen's Shoes11 Colors$12520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Huarache CraftSustainable MaterialsNike Air Huarache CraftWomen's Shoes6 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Dunk High PremiumNike Dunk High PremiumWomen's Shoes2 Colors$14020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max SYSTMNike Air Max SYSTMWomen's Shoes8 Colors$90.97$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Low '77Nike Blazer Low '77Women's Shoes1 Color$9020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike J Force 1 Low LX SPNike J Force 1 Low LX SPWomen's Shoes2 Colors$17020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max ExceeNike Air Max ExceeWomen's Shoes8 Colors$9520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Waffle Debut VintageNike Waffle Debut VintageWomen's Shoes3 Colors$8020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Mid '77 VintageNike Blazer Mid '77 VintageWomen's Shoes2 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Pegasus TurboSustainable MaterialsNike Pegasus TurboWomen's Road Running Shoes12 Colors$90$15040% Off40% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07 Next NatureSustainable MaterialsNike Air Force 1 '07 Next NatureWomen's Shoes5 Colors$80.97$11529% Off29% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max DawnSustainable MaterialsNike Air Max DawnWomen's Shoes9 Colors$11520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike MC Trainer 2Nike MC Trainer 2Women’s Training Shoes8 Colors$7520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max Bella TR 5Nike Air Max Bella TR 5Women's Training Shoes6 Colors$9020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 PLT.AF.ORMNike Air Force 1 PLT.AF.ORMWomen's Shoes7 Colors$12020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Dunk High 1985Nike Dunk High 1985Shoes2 Colors$14020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max Bliss LXNike Air Max Bliss LXWomen's Shoes10 Colors$112.97$15024% Off24% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Mid '77 CanvasNike Blazer Mid '77 CanvasWomen's Shoes2 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Victori OneNike Victori OneWomen's Print Slides15 Colors$4020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Icon ClassicNike Icon ClassicWomen's Sandals4 Colors$6520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Renew In-Season TR 12Nike Renew In-Season TR 12Women's Training Shoes4 Colors$56.97$8028% Off28% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Legend Essential 3 Next NatureSustainable MaterialsNike Legend Essential 3 Next NatureWomen's Training Shoes4 Colors$55.97$6513% Off13% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max INTRLKNike Air Max INTRLKWomen's Shoes4 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike DaybreakNike DaybreakWomen's Shoes5 Colors$9520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Vomero 16Nike Vomero 16Women's Road Running Shoes6 Colors$15020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Downshifter 12Sustainable MaterialsNike Downshifter 12Women's Road Running Shoes9 Colors$7020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Wildhorse 8Nike Wildhorse 8Women's Trail Running Shoes3 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Structure 24Nike Structure 24Women's Road Running Shoes6 Colors$13020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Metcon 8 FlyEaseNike Metcon 8 FlyEaseWomen's Easy On/Off Training Shoes3 Colors$97.97$13024% Off24% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike SuperRep Cycle 2 Next NatureSustainable MaterialsNike SuperRep Cycle 2 Next NatureWomen's Indoor Cycling Shoes8 Colors$90.97$12024% Off24% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike DBreak PremiumNike DBreak PremiumWomen's Shoes1 Color$96.97$12522% Off22% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Blazer Mid '77 SENike Blazer Mid '77 SEWomen's Shoes5 Colors$76.97$11030% Off30% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Air Max CorrelateNike Air Max CorrelateWomen's Shoes4 Colors$10020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Revolution 6Sustainable MaterialsNike Revolution 6Women's Road Running Shoes12 Colors$7020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Court Vision LowNike Court Vision LowWomen's Shoes5 Colors$8020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Low SEBest SellerAir Jordan 1 Low SEWomen's Shoes3 Colors$12020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 LowBest SellerAir Jordan 1 LowWomen's Shoes3 Colors$11020% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Elevate LowBest SellerAir Jordan 1 Elevate LowWomen's Shoes11 Colors$13520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Mid SESustainable MaterialsAir Jordan 1 Mid SEWomen's Shoes6 Colors$13520% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 LowBest SellerAir Jordan 1 LowMen's Shoes6 Colors$88.97$11019% Off19% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Low GAir Jordan 1 Low GGolf Shoes6 Colors$89.97$14035% Off35% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nike Go FlyEaseNike Go FlyEaseEasy On/Off Shoes3 Colors$84.97$12029% Off29% off20% Off w/ ULTIMATE20% Off w/ ULTIMATE</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,19 +1480,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1254,19 +1500,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1274,16 +1520,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1291,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1308,19 +1554,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1328,16 +1574,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1345,19 +1591,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1365,19 +1611,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1385,19 +1631,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1405,16 +1651,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1422,19 +1668,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1442,19 +1688,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1462,19 +1708,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1482,19 +1728,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1502,16 +1748,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1519,19 +1765,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1539,16 +1785,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1556,16 +1802,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1573,16 +1819,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1590,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1607,19 +1853,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1627,19 +1873,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1647,19 +1893,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1667,19 +1913,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1687,19 +1933,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1707,16 +1953,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1724,16 +1970,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1741,16 +1987,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1758,16 +2004,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1775,19 +2021,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1795,19 +2041,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1815,16 +2061,16 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1832,16 +2078,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1849,16 +2095,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1866,16 +2112,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1883,16 +2129,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1900,16 +2146,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1917,16 +2163,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1934,16 +2180,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1951,16 +2197,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1968,16 +2214,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1985,16 +2231,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2002,16 +2248,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="F44" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2019,16 +2265,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2036,16 +2282,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2053,16 +2299,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2070,16 +2316,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2087,16 +2333,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2104,16 +2350,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2121,16 +2367,16 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2138,19 +2384,19 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2158,19 +2404,19 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2178,16 +2424,16 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2195,16 +2441,16 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F55" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2212,19 +2458,19 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2232,16 +2478,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2249,16 +2495,16 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2266,16 +2512,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2283,16 +2529,16 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="F60" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2300,16 +2546,16 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2317,16 +2563,16 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2334,16 +2580,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2351,19 +2597,19 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2371,16 +2617,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2388,19 +2631,19 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F66" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2408,19 +2651,19 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2428,16 +2671,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2445,16 +2688,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2462,16 +2705,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2479,16 +2722,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2496,16 +2739,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2513,16 +2756,451 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" t="s">
-        <v>179</v>
-      </c>
-      <c r="F73" t="s">
-        <v>272</v>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" t="s">
+        <v>223</v>
+      </c>
+      <c r="F78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" t="s">
+        <v>250</v>
+      </c>
+      <c r="F79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" t="s">
+        <v>225</v>
+      </c>
+      <c r="F82" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" t="s">
+        <v>226</v>
+      </c>
+      <c r="F91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" t="s">
+        <v>257</v>
+      </c>
+      <c r="F95" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E96" t="s">
+        <v>258</v>
+      </c>
+      <c r="F96" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2599,6 +3277,30 @@
     <hyperlink ref="D71" r:id="rId70"/>
     <hyperlink ref="D72" r:id="rId71"/>
     <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
